--- a/public/template_excel/template_laporan_verifikasi_lapangan.xlsx
+++ b/public/template_excel/template_laporan_verifikasi_lapangan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iktiar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Office\SIM-LPU-2025-REBUILD-Backend\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D6AB4E-D5FC-4054-B000-F49DC6E02995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8D45D-F258-47F6-89D3-C46B9723D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E87C62E6-478E-421E-8A8C-4418EAB3B648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E87C62E6-478E-421E-8A8C-4418EAB3B648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Kesimpulan</t>
+  </si>
+  <si>
+    <t>Foto Tampak Depan</t>
+  </si>
+  <si>
+    <t>Foto Tampak Belakang</t>
+  </si>
+  <si>
+    <t>Foto Tampak Samping</t>
+  </si>
+  <si>
+    <t>Foto Tampak Dalam</t>
   </si>
 </sst>
 </file>
@@ -138,10 +150,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -161,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,102 +469,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850D9BE5-FDC7-43E3-9CEE-B4E71FADB8F3}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30.5546875" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="22.44140625" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4" t="s">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
